--- a/Faturamento.xlsx
+++ b/Faturamento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MARIANA\projeto\gitProjetoIntegradorCDN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6216519869e39fee/FATEC/Projeto/gitProjetoIntegradorCDN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DBE9AB-D869-4A67-80E2-B86CE90C5D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{F9DBE9AB-D869-4A67-80E2-B86CE90C5D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33E0CBED-6058-450B-881B-2B6FB27806B2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Mês</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>01/08/2023 à 31/07/2024</t>
+  </si>
+  <si>
+    <t>Coluna1</t>
   </si>
 </sst>
 </file>
@@ -122,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -145,12 +148,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -209,11 +216,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7F832EF-7168-4405-8051-603457C56046}" name="Tabela1" displayName="Tabela1" ref="B5:C18" totalsRowCount="1">
-  <autoFilter ref="B5:C17" xr:uid="{B7F832EF-7168-4405-8051-603457C56046}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9784AFC3-6EF2-4CB1-A87B-AFF24A87A750}" name="Mês" totalsRowLabel="Faturamento Bruto" dataDxfId="3" totalsRowDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{B3342A74-F7FB-41E1-9FB2-5C33B1141B96}" name="Faturamento Bruto" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="0" dataCellStyle="Moeda"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7F832EF-7168-4405-8051-603457C56046}" name="Tabela1" displayName="Tabela1" ref="B5:D18" totalsRowCount="1">
+  <autoFilter ref="B5:D17" xr:uid="{B7F832EF-7168-4405-8051-603457C56046}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9784AFC3-6EF2-4CB1-A87B-AFF24A87A750}" name="Mês" totalsRowLabel="Faturamento Bruto" dataDxfId="4" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B3342A74-F7FB-41E1-9FB2-5C33B1141B96}" name="Faturamento Bruto" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="1" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{5B0DE8CD-ECA3-4C3E-AACD-88F7F1DC8670}" name="Coluna1" totalsRowFunction="custom" totalsRowDxfId="0">
+      <totalsRowFormula>AVERAGE(D8,D11,D14,D17)</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -485,27 +495,28 @@
   <dimension ref="B1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
     </row>
-    <row r="3" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
@@ -514,18 +525,21 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>45139</v>
       </c>
@@ -533,7 +547,7 @@
         <v>667894.81999999995</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>45170</v>
       </c>
@@ -541,15 +555,19 @@
         <v>605711.66</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>45200</v>
       </c>
       <c r="C8" s="3">
         <v>742371.67</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="10">
+        <f>SUM(C6:C8)</f>
+        <v>2015978.15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>45231</v>
       </c>
@@ -557,7 +575,7 @@
         <v>653023.65</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>45261</v>
       </c>
@@ -565,15 +583,19 @@
         <v>1484128.34</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>45292</v>
       </c>
       <c r="C11" s="3">
         <v>1344597.27</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="10">
+        <f>SUM(C9:C11)</f>
+        <v>3481749.2600000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>45323</v>
       </c>
@@ -581,7 +603,7 @@
         <v>815013.09</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>45352</v>
       </c>
@@ -589,15 +611,19 @@
         <v>769424.2</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>45383</v>
       </c>
       <c r="C14" s="3">
         <v>712616.78</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="10">
+        <f>SUM(C12:C14)</f>
+        <v>2297054.0700000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>45413</v>
       </c>
@@ -605,7 +631,7 @@
         <v>789732.23</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>45444</v>
       </c>
@@ -613,15 +639,19 @@
         <v>795484.37</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>45474</v>
       </c>
       <c r="C17" s="3">
         <v>873239.86</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="10">
+        <f>SUM(C15:C17)</f>
+        <v>2458456.46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
@@ -629,8 +659,12 @@
         <f>SUBTOTAL(109,Tabela1[Faturamento Bruto])</f>
         <v>10253237.939999999</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="10">
+        <f>AVERAGE(D8,D11,D14,D17)</f>
+        <v>2563309.4850000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D22" s="8"/>
     </row>
   </sheetData>
